--- a/autotest1st/jgg/res/testcases/merchant.xlsx
+++ b/autotest1st/jgg/res/testcases/merchant.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A02B0B-89CA-49CE-BDDC-58A30C0B63B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A70B2B-5148-40DC-BDCB-E28F6111B206}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
-    <sheet name="001_MerchantSuccessFunction" sheetId="2" r:id="rId2"/>
+    <sheet name="001_MerchantAdd" sheetId="2" r:id="rId2"/>
+    <sheet name="002_MerchantEdit" sheetId="3" r:id="rId3"/>
+    <sheet name="003_MerchantDel" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="145">
   <si>
     <t>点击</t>
   </si>
@@ -294,6 +296,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点击【渠道】模块，进入渠道功能界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>guoj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +324,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>点击[新增按钮]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,38 +340,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChannelPage.新增按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查新增窗口元素[标题]是不是显示出来了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChannelAddPage.新增窗口标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向编号输入框输入TestChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChannelAddPage.编号输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向名称输入框输入测试渠道新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChannelAddPage.渠道类型框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择下拉列表【官网】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QYT123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择是或否 - IsOrNo</t>
   </si>
   <si>
@@ -474,7 +456,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChannelPage.取消新增</t>
+    <t>检查表格文本</t>
+  </si>
+  <si>
+    <t>检查表格文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查表格中文本是不是相等，需要提供要检查的元素的定位方式以及期望文本作为参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelPage.名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查是否新增成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除数据</t>
+  </si>
+  <si>
+    <t>修改数据，需要精确的数据对象，进入修改窗口，需要提供数据唯一的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查元素[取消]按钮是不是显示出来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelPage.取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除数据，需要精确的数据对象，需要提供数据唯一的参数，参数要求：True=检查值 / Fail=检查值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True=测试渠道新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qyt123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,22 +518,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击【商家】模块，进入渠道功能界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改数据</t>
-  </si>
-  <si>
-    <t>修改数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改数据，需要精确的数据对象，进入修改窗口</t>
+    <t>MerchantPage.新增按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MerchantPage.新增窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查新增窗口元素是不是显示出来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新增窗口中点击渠道框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MerchantPage.零售价策略label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击 - byOther</t>
+  </si>
+  <si>
+    <t>点击 - byOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击字段框并出现弹窗，解决多个字段使用同一弹窗口，或无法直接定位，以字段名辅助定位。回退层级（./..）By=字段框Xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./../..By=.//input[@placeholder='请选价格类型']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,6 +667,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -630,7 +754,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -943,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,10 +1097,10 @@
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1037,15 +1161,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -1165,10 +1289,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1182,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,7 +1340,7 @@
     <col min="2" max="2" width="41" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1220,7 +1368,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="10">
@@ -1286,7 +1434,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>55</v>
@@ -1301,7 +1449,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>56</v>
@@ -1316,13 +1464,13 @@
         <v>71</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1333,13 +1481,13 @@
         <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1382,7 +1530,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>73</v>
@@ -1465,7 +1613,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>62</v>
@@ -1508,13 +1656,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -1523,13 +1671,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7">
         <v>15</v>
@@ -1540,16 +1688,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1557,13 +1705,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E23" s="7">
         <v>25</v>
@@ -1574,13 +1722,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E24" s="7"/>
     </row>
@@ -1589,13 +1737,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E25" s="7">
         <v>15</v>
@@ -1606,16 +1754,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1623,16 +1771,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1640,16 +1788,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1657,13 +1805,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -1672,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E30" s="7">
         <v>15</v>
@@ -1689,16 +1837,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1706,16 +1854,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1723,16 +1871,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1740,13 +1888,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -1761,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="7">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1769,16 +1917,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E36" s="7">
-        <v>1500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1786,13 +1934,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1806,12 +1954,24 @@
         <v>3</v>
       </c>
       <c r="E38" s="7">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1825,13 +1985,839 @@
           <x14:formula1>
             <xm:f>Actions!$A$2:$A$26</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C38 C40:C1048576</xm:sqref>
+          <xm:sqref>C40:C1048576 C1 C18:C25 C27:C38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45EF8376-6821-4EC3-B75D-F1C105D9625B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD3C4956-0B14-48AB-8720-8E7ECDBB7450}">
           <x14:formula1>
             <xm:f>Actions!$A$2:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>C39</xm:sqref>
+          <xm:sqref>C39 C2:C17 C26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DBD2F0-5A4A-4501-B06E-49771414E9DC}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="41" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="10">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE5390EB-41E8-4A16-9995-5A2B92664A31}">
+          <x14:formula1>
+            <xm:f>Actions!$A$2:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1 C24:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D11676D3-463A-45BB-B62D-7BB63673928D}">
+          <x14:formula1>
+            <xm:f>Actions!$A$2:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17472FF-A379-4157-AEC9-BBA76AB82A1C}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="41" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="10">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B605B432-6D71-483D-85EF-EFE5A6242E56}">
+          <x14:formula1>
+            <xm:f>Actions!$A$2:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3068042-719C-4038-8213-49BC9E287CC9}">
+          <x14:formula1>
+            <xm:f>Actions!$A$2:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>C24:C1048576 C1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
